--- a/public/archivos/usuarios.xlsx
+++ b/public/archivos/usuarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanmoscoso/Proyectos/CRM/CRM_web/public/archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A53FB70-E046-854F-961B-7BB51D080E80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71DF124F-0E45-CB4C-99C0-78E3F9AB20C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14200" xr2:uid="{709F2109-FB80-C645-B249-23781023D056}"/>
   </bookViews>
